--- a/artfynd/A 30035-2022.xlsx
+++ b/artfynd/A 30035-2022.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>336437</v>
+        <v>887508</v>
       </c>
       <c r="B2" t="n">
-        <v>89388</v>
+        <v>78570</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,21 +696,21 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>1108</v>
+        <v>2081</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Fr.) Krieglst.</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -720,10 +720,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>505064.5737283072</v>
+        <v>504941.95586932</v>
       </c>
       <c r="R2" t="n">
-        <v>7147782.476037481</v>
+        <v>7147700.687048615</v>
       </c>
       <c r="S2" t="n">
         <v>25</v>
@@ -792,10 +792,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>887509</v>
+        <v>336437</v>
       </c>
       <c r="B3" t="n">
-        <v>78570</v>
+        <v>89388</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -808,21 +808,21 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>2081</v>
+        <v>1108</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(Fr.) Krieglst.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -832,10 +832,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>505064.0391982389</v>
+        <v>505064.5737283072</v>
       </c>
       <c r="R3" t="n">
-        <v>7147844.20446728</v>
+        <v>7147782.476037481</v>
       </c>
       <c r="S3" t="n">
         <v>25</v>
@@ -904,7 +904,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>887508</v>
+        <v>887509</v>
       </c>
       <c r="B4" t="n">
         <v>78570</v>
@@ -944,10 +944,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>504941.95586932</v>
+        <v>505064.0391982389</v>
       </c>
       <c r="R4" t="n">
-        <v>7147700.687048615</v>
+        <v>7147844.20446728</v>
       </c>
       <c r="S4" t="n">
         <v>25</v>

--- a/artfynd/A 30035-2022.xlsx
+++ b/artfynd/A 30035-2022.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>887508</v>
+        <v>336437</v>
       </c>
       <c r="B2" t="n">
-        <v>78570</v>
+        <v>89388</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,21 +696,21 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>2081</v>
+        <v>1108</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(Fr.) Krieglst.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -720,10 +720,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>504941.95586932</v>
+        <v>505064.5737283072</v>
       </c>
       <c r="R2" t="n">
-        <v>7147700.687048615</v>
+        <v>7147782.476037481</v>
       </c>
       <c r="S2" t="n">
         <v>25</v>
@@ -792,10 +792,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>336437</v>
+        <v>887509</v>
       </c>
       <c r="B3" t="n">
-        <v>89388</v>
+        <v>78570</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -808,21 +808,21 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>1108</v>
+        <v>2081</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Fr.) Krieglst.</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -832,10 +832,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>505064.5737283072</v>
+        <v>505064.0391982389</v>
       </c>
       <c r="R3" t="n">
-        <v>7147782.476037481</v>
+        <v>7147844.20446728</v>
       </c>
       <c r="S3" t="n">
         <v>25</v>
@@ -904,7 +904,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>887509</v>
+        <v>887508</v>
       </c>
       <c r="B4" t="n">
         <v>78570</v>
@@ -944,10 +944,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>505064.0391982389</v>
+        <v>504941.95586932</v>
       </c>
       <c r="R4" t="n">
-        <v>7147844.20446728</v>
+        <v>7147700.687048615</v>
       </c>
       <c r="S4" t="n">
         <v>25</v>
